--- a/t/etc/align/structure.xlsx
+++ b/t/etc/align/structure.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17420" yWindow="-420" windowWidth="34400" windowHeight="22600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35560" windowHeight="20980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,9 @@
     <definedName name="test_exons" localSheetId="0">Sheet1!$A$1:$H$31</definedName>
     <definedName name="test.clone.vulgar" localSheetId="0">Sheet1!$A$44:$CS$45</definedName>
   </definedNames>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Connection1" type="6" refreshedVersion="0">
+  <connection id="1" name="Connection1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:mg13:Work:Misc:Vulgar:RP11-420G6.2-002:test_exons.txt" tab="0" space="1" consecutive="1">
       <textFields count="8">
         <textField/>
@@ -38,7 +38,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Connection2" type="6" refreshedVersion="0">
+  <connection id="2" name="Connection2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" firstRow="6" sourceFile="Macintosh HD:Users:mg13:Work:Misc:Vulgar:RP11-420G6.2-002:test.clone.vulgar" tab="0" space="1" consecutive="1">
       <textFields count="97">
         <textField/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="128">
   <si>
     <t>Intron 4.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,19 +462,166 @@
   <si>
     <t>Intron 4.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp|Q96S55|WRIP1_HUMAN</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Exon 1.1</t>
+  </si>
+  <si>
+    <t>Intron 1.1</t>
+  </si>
+  <si>
+    <t>Intron 1.2</t>
+  </si>
+  <si>
+    <t>Intron 1.3</t>
+  </si>
+  <si>
+    <t>Exon 2.1</t>
+  </si>
+  <si>
+    <t>Exon 2.2</t>
+  </si>
+  <si>
+    <t>Exon 2.3</t>
+  </si>
+  <si>
+    <t>Intron 2.1</t>
+  </si>
+  <si>
+    <t>Intron 2.2</t>
+  </si>
+  <si>
+    <t>Intron 2.3</t>
+  </si>
+  <si>
+    <t>Exon 3.1</t>
+  </si>
+  <si>
+    <t>Exon 3.2</t>
+  </si>
+  <si>
+    <t>Exon 3.3</t>
+  </si>
+  <si>
+    <t>Exon 3.4</t>
+  </si>
+  <si>
+    <t>Exon 3.5</t>
+  </si>
+  <si>
+    <t>Intron 3.1</t>
+  </si>
+  <si>
+    <t>Intron 3.2</t>
+  </si>
+  <si>
+    <t>Intron 3.3</t>
+  </si>
+  <si>
+    <t>Exon 4.1</t>
+  </si>
+  <si>
+    <t>Exon 4.2</t>
+  </si>
+  <si>
+    <t>Exon 4.3</t>
+  </si>
+  <si>
+    <t>Intron 4.1</t>
+  </si>
+  <si>
+    <t>Intron 4.2</t>
+  </si>
+  <si>
+    <t>Intron 4.3</t>
+  </si>
+  <si>
+    <t>Exon 5.1</t>
+  </si>
+  <si>
+    <t>Exon 5.2</t>
+  </si>
+  <si>
+    <t>Exon 5.3</t>
+  </si>
+  <si>
+    <t>Intron 5.1</t>
+  </si>
+  <si>
+    <t>Intron 5.2</t>
+  </si>
+  <si>
+    <t>Intron 5.3</t>
+  </si>
+  <si>
+    <t>Exon 6.1</t>
+  </si>
+  <si>
+    <t>Exon 6.2</t>
+  </si>
+  <si>
+    <t>Intron 6.1</t>
+  </si>
+  <si>
+    <t>Intron 6.2</t>
+  </si>
+  <si>
+    <t>Intron 6.3</t>
+  </si>
+  <si>
+    <t>Exon 7.1</t>
+  </si>
+  <si>
+    <t>Exon 1</t>
+  </si>
+  <si>
+    <t>Exon 2</t>
+  </si>
+  <si>
+    <t>Exon 3</t>
+  </si>
+  <si>
+    <t>Alignment taken from protein.clone.vulgar:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -495,30 +642,185 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="77">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test_exons" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test.clone.vulgar" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test.clone.vulgar" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test_exons" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -840,14 +1142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:I84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:H40"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -2944,7 +3246,7 @@
         <v>37340</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
         <v>58</v>
       </c>
@@ -2965,7 +3267,7 @@
         <v>41483</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,7 +3288,7 @@
         <v>50549</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
         <v>59</v>
       </c>
@@ -3007,7 +3309,7 @@
         <v>52054</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
         <v>60</v>
       </c>
@@ -3028,12 +3330,1278 @@
         <v>55274</v>
       </c>
     </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>665</v>
+      </c>
+      <c r="D91" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91">
+        <v>120540</v>
+      </c>
+      <c r="G91">
+        <v>140196</v>
+      </c>
+      <c r="H91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93">
+        <v>274</v>
+      </c>
+      <c r="C93">
+        <v>822</v>
+      </c>
+      <c r="E93">
+        <f>B91+1</f>
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <f>E93+B93-1</f>
+        <v>274</v>
+      </c>
+      <c r="G93">
+        <f>F91+1</f>
+        <v>120541</v>
+      </c>
+      <c r="H93">
+        <f>G93+C93-1</f>
+        <v>121362</v>
+      </c>
+      <c r="I93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="3">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <f>F93+1</f>
+        <v>275</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ref="F94" si="12">E94+B94-1</f>
+        <v>274</v>
+      </c>
+      <c r="G94">
+        <f>H93+1</f>
+        <v>121363</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ref="H94" si="13">G94+C94-1</f>
+        <v>121364</v>
+      </c>
+      <c r="I94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>2242</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ref="E95:E128" si="14">F94+1</f>
+        <v>275</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ref="F95:F128" si="15">E95+B95-1</f>
+        <v>274</v>
+      </c>
+      <c r="G95">
+        <f t="shared" ref="G95:G128" si="16">H94+1</f>
+        <v>121365</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ref="H95:H128" si="17">G95+C95-1</f>
+        <v>123606</v>
+      </c>
+      <c r="I95" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="3">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="14"/>
+        <v>275</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="15"/>
+        <v>274</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="16"/>
+        <v>123607</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="17"/>
+        <v>123608</v>
+      </c>
+      <c r="I96" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97">
+        <v>11</v>
+      </c>
+      <c r="C97">
+        <v>33</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="14"/>
+        <v>275</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="15"/>
+        <v>285</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="16"/>
+        <v>123609</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="17"/>
+        <v>123641</v>
+      </c>
+      <c r="I97" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="14"/>
+        <v>286</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="15"/>
+        <v>285</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="16"/>
+        <v>123642</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="17"/>
+        <v>123642</v>
+      </c>
+      <c r="I98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99">
+        <v>53</v>
+      </c>
+      <c r="C99">
+        <v>159</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="14"/>
+        <v>286</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="15"/>
+        <v>338</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="16"/>
+        <v>123643</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="17"/>
+        <v>123801</v>
+      </c>
+      <c r="I99" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="3">
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="14"/>
+        <v>339</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="15"/>
+        <v>338</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="16"/>
+        <v>123802</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="17"/>
+        <v>123803</v>
+      </c>
+      <c r="I100" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>1233</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="14"/>
+        <v>339</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="15"/>
+        <v>338</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="16"/>
+        <v>123804</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="17"/>
+        <v>125036</v>
+      </c>
+      <c r="I101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="2">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="14"/>
+        <v>339</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="15"/>
+        <v>338</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="16"/>
+        <v>125037</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="17"/>
+        <v>125038</v>
+      </c>
+      <c r="I102" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103">
+        <v>43</v>
+      </c>
+      <c r="C103">
+        <v>129</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="14"/>
+        <v>339</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="15"/>
+        <v>381</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="16"/>
+        <v>125039</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="17"/>
+        <v>125167</v>
+      </c>
+      <c r="I103" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="14"/>
+        <v>382</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="15"/>
+        <v>381</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="16"/>
+        <v>125168</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="17"/>
+        <v>125168</v>
+      </c>
+      <c r="I104" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="14"/>
+        <v>382</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="15"/>
+        <v>382</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="16"/>
+        <v>125169</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="17"/>
+        <v>125168</v>
+      </c>
+      <c r="I105" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106">
+        <v>36</v>
+      </c>
+      <c r="C106">
+        <v>108</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="14"/>
+        <v>383</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="15"/>
+        <v>418</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="16"/>
+        <v>125169</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="17"/>
+        <v>125276</v>
+      </c>
+      <c r="I106" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="14"/>
+        <v>419</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="15"/>
+        <v>418</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="16"/>
+        <v>125277</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="17"/>
+        <v>125278</v>
+      </c>
+      <c r="I107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="2">
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="14"/>
+        <v>419</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="15"/>
+        <v>418</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="16"/>
+        <v>125279</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="17"/>
+        <v>125280</v>
+      </c>
+      <c r="I108" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>8897</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="14"/>
+        <v>419</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="15"/>
+        <v>418</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="16"/>
+        <v>125281</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="17"/>
+        <v>134177</v>
+      </c>
+      <c r="I109" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="2">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="14"/>
+        <v>419</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="15"/>
+        <v>418</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="16"/>
+        <v>134178</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="17"/>
+        <v>134179</v>
+      </c>
+      <c r="I110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="14"/>
+        <v>419</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="15"/>
+        <v>419</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="16"/>
+        <v>134180</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="17"/>
+        <v>134180</v>
+      </c>
+      <c r="I111" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112">
+        <v>76</v>
+      </c>
+      <c r="C112">
+        <v>228</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="14"/>
+        <v>420</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="15"/>
+        <v>495</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="16"/>
+        <v>134181</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="17"/>
+        <v>134408</v>
+      </c>
+      <c r="I112" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="14"/>
+        <v>496</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="15"/>
+        <v>495</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="16"/>
+        <v>134409</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="17"/>
+        <v>134409</v>
+      </c>
+      <c r="I113" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="2">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="14"/>
+        <v>496</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="15"/>
+        <v>495</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="16"/>
+        <v>134410</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="17"/>
+        <v>134411</v>
+      </c>
+      <c r="I114" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>3909</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="14"/>
+        <v>496</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="15"/>
+        <v>495</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="16"/>
+        <v>134412</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="17"/>
+        <v>138320</v>
+      </c>
+      <c r="I115" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="2">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="14"/>
+        <v>496</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="15"/>
+        <v>495</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="16"/>
+        <v>138321</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="17"/>
+        <v>138322</v>
+      </c>
+      <c r="I116" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="14"/>
+        <v>496</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="15"/>
+        <v>496</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="16"/>
+        <v>138323</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="17"/>
+        <v>138324</v>
+      </c>
+      <c r="I117" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118">
+        <v>51</v>
+      </c>
+      <c r="C118">
+        <v>153</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="14"/>
+        <v>497</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="15"/>
+        <v>547</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="16"/>
+        <v>138325</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="17"/>
+        <v>138477</v>
+      </c>
+      <c r="I118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="14"/>
+        <v>548</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="15"/>
+        <v>547</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="16"/>
+        <v>138478</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="17"/>
+        <v>138478</v>
+      </c>
+      <c r="I119" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>5</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="14"/>
+        <v>548</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="15"/>
+        <v>547</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="16"/>
+        <v>138479</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="17"/>
+        <v>138480</v>
+      </c>
+      <c r="I120" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>758</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="14"/>
+        <v>548</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="15"/>
+        <v>547</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="16"/>
+        <v>138481</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="17"/>
+        <v>139238</v>
+      </c>
+      <c r="I121" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="14"/>
+        <v>548</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="15"/>
+        <v>547</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="16"/>
+        <v>139239</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="17"/>
+        <v>139240</v>
+      </c>
+      <c r="I122" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="14"/>
+        <v>548</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="15"/>
+        <v>548</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="16"/>
+        <v>139241</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="17"/>
+        <v>139242</v>
+      </c>
+      <c r="I123" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124">
+        <v>26</v>
+      </c>
+      <c r="C124">
+        <v>78</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="14"/>
+        <v>549</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="15"/>
+        <v>574</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="16"/>
+        <v>139243</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="17"/>
+        <v>139320</v>
+      </c>
+      <c r="I124" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>5</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="14"/>
+        <v>575</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="15"/>
+        <v>574</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="16"/>
+        <v>139321</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="17"/>
+        <v>139322</v>
+      </c>
+      <c r="I125" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>599</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="14"/>
+        <v>575</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="15"/>
+        <v>574</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="16"/>
+        <v>139323</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="17"/>
+        <v>139921</v>
+      </c>
+      <c r="I126" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="14"/>
+        <v>575</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="15"/>
+        <v>574</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="16"/>
+        <v>139922</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="17"/>
+        <v>139923</v>
+      </c>
+      <c r="I127" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128">
+        <v>91</v>
+      </c>
+      <c r="C128">
+        <v>273</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="14"/>
+        <v>575</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="15"/>
+        <v>665</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="16"/>
+        <v>139924</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="17"/>
+        <v>140196</v>
+      </c>
+      <c r="I128" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E131">
+        <f>E93</f>
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <f>F93</f>
+        <v>274</v>
+      </c>
+      <c r="G131">
+        <f>G93</f>
+        <v>120541</v>
+      </c>
+      <c r="H131">
+        <f>H93</f>
+        <v>121362</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E132">
+        <f>E97</f>
+        <v>275</v>
+      </c>
+      <c r="F132">
+        <f>F99</f>
+        <v>338</v>
+      </c>
+      <c r="G132">
+        <f>G97</f>
+        <v>123609</v>
+      </c>
+      <c r="H132">
+        <f>H99</f>
+        <v>123801</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E133">
+        <f>E103</f>
+        <v>339</v>
+      </c>
+      <c r="F133">
+        <f>F107</f>
+        <v>418</v>
+      </c>
+      <c r="G133">
+        <f>G103</f>
+        <v>125039</v>
+      </c>
+      <c r="H133">
+        <f>H107</f>
+        <v>125278</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E134">
+        <f>E111</f>
+        <v>419</v>
+      </c>
+      <c r="F134">
+        <f>F113</f>
+        <v>495</v>
+      </c>
+      <c r="G134">
+        <f>G111</f>
+        <v>134180</v>
+      </c>
+      <c r="H134">
+        <f>H113</f>
+        <v>134409</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E135">
+        <f>E117</f>
+        <v>496</v>
+      </c>
+      <c r="F135">
+        <f>F119</f>
+        <v>547</v>
+      </c>
+      <c r="G135">
+        <f>G117</f>
+        <v>138323</v>
+      </c>
+      <c r="H135">
+        <f>H119</f>
+        <v>138478</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E136">
+        <f>E123</f>
+        <v>548</v>
+      </c>
+      <c r="F136">
+        <f>F124</f>
+        <v>574</v>
+      </c>
+      <c r="G136">
+        <f>G123</f>
+        <v>139241</v>
+      </c>
+      <c r="H136">
+        <f>H124</f>
+        <v>139320</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E137">
+        <f>E128</f>
+        <v>575</v>
+      </c>
+      <c r="F137">
+        <f>F128</f>
+        <v>665</v>
+      </c>
+      <c r="G137">
+        <f>G128</f>
+        <v>139924</v>
+      </c>
+      <c r="H137">
+        <f>H128</f>
+        <v>140196</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/t/etc/align/structure.xlsx
+++ b/t/etc/align/structure.xlsx
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="132">
   <si>
     <t>Intron 4.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,6 +597,18 @@
   </si>
   <si>
     <t>Alignment taken from protein.clone.vulgar:</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -642,7 +654,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -720,8 +732,110 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -730,8 +844,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="179">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -770,6 +890,57 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -808,6 +979,57 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -816,11 +1038,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test.clone.vulgar" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test_exons" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test_exons" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test.clone.vulgar" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1143,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:AX188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182:H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4449,7 +4671,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:50">
       <c r="A131" s="1" t="s">
         <v>124</v>
       </c>
@@ -4470,7 +4692,7 @@
         <v>121362</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:50">
       <c r="A132" s="1" t="s">
         <v>125</v>
       </c>
@@ -4491,7 +4713,7 @@
         <v>123801</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:50">
       <c r="A133" s="1" t="s">
         <v>126</v>
       </c>
@@ -4512,7 +4734,7 @@
         <v>125278</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:50">
       <c r="A134" s="1" t="s">
         <v>58</v>
       </c>
@@ -4533,7 +4755,7 @@
         <v>134409</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:50">
       <c r="A135" s="1" t="s">
         <v>48</v>
       </c>
@@ -4554,7 +4776,7 @@
         <v>138478</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:50">
       <c r="A136" s="1" t="s">
         <v>59</v>
       </c>
@@ -4575,7 +4797,7 @@
         <v>139320</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:50">
       <c r="A137" s="1" t="s">
         <v>60</v>
       </c>
@@ -4594,6 +4816,1267 @@
       <c r="H137">
         <f>H128</f>
         <v>140196</v>
+      </c>
+    </row>
+    <row r="140" spans="1:50">
+      <c r="A140" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>665</v>
+      </c>
+      <c r="D140" t="s">
+        <v>84</v>
+      </c>
+      <c r="E140" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140">
+        <v>55122</v>
+      </c>
+      <c r="G140">
+        <v>35466</v>
+      </c>
+      <c r="H140" t="s">
+        <v>128</v>
+      </c>
+      <c r="I140">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="141" spans="1:50">
+      <c r="AX141" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="144" spans="1:50">
+      <c r="A144" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144">
+        <v>274</v>
+      </c>
+      <c r="C144" s="4">
+        <v>822</v>
+      </c>
+      <c r="E144">
+        <f>B140+1</f>
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <f>E144+B144-1</f>
+        <v>274</v>
+      </c>
+      <c r="G144">
+        <f>F140</f>
+        <v>55122</v>
+      </c>
+      <c r="H144">
+        <f>G144-C144+1</f>
+        <v>54301</v>
+      </c>
+      <c r="I144" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="2">
+        <v>5</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" s="4">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <f>F144+1</f>
+        <v>275</v>
+      </c>
+      <c r="F145">
+        <f>E145+B145-1</f>
+        <v>274</v>
+      </c>
+      <c r="G145">
+        <f>H144-1</f>
+        <v>54300</v>
+      </c>
+      <c r="H145">
+        <f>G145-C145+1</f>
+        <v>54299</v>
+      </c>
+      <c r="I145" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" s="4">
+        <v>2242</v>
+      </c>
+      <c r="E146">
+        <f t="shared" ref="E146:E179" si="18">F145+1</f>
+        <v>275</v>
+      </c>
+      <c r="F146">
+        <f t="shared" ref="F146:F179" si="19">E146+B146-1</f>
+        <v>274</v>
+      </c>
+      <c r="G146">
+        <f t="shared" ref="G146:G179" si="20">H145-1</f>
+        <v>54298</v>
+      </c>
+      <c r="H146">
+        <f t="shared" ref="H146:H179" si="21">G146-C146+1</f>
+        <v>52057</v>
+      </c>
+      <c r="I146" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="2">
+        <v>3</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" s="4">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="18"/>
+        <v>275</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="19"/>
+        <v>274</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="20"/>
+        <v>52056</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="21"/>
+        <v>52055</v>
+      </c>
+      <c r="I147" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148">
+        <v>11</v>
+      </c>
+      <c r="C148" s="4">
+        <v>33</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="18"/>
+        <v>275</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="19"/>
+        <v>285</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="20"/>
+        <v>52054</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="21"/>
+        <v>52022</v>
+      </c>
+      <c r="I148" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" s="4">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="18"/>
+        <v>286</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="19"/>
+        <v>285</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="20"/>
+        <v>52021</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="21"/>
+        <v>52021</v>
+      </c>
+      <c r="I149" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150">
+        <v>53</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="18"/>
+        <v>286</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="19"/>
+        <v>338</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="20"/>
+        <v>52020</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="21"/>
+        <v>51862</v>
+      </c>
+      <c r="I150" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="2">
+        <v>5</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151" s="4">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="18"/>
+        <v>339</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="19"/>
+        <v>338</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="20"/>
+        <v>51861</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="21"/>
+        <v>51860</v>
+      </c>
+      <c r="I151" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" s="4">
+        <v>1233</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="18"/>
+        <v>339</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="19"/>
+        <v>338</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="20"/>
+        <v>51859</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="21"/>
+        <v>50627</v>
+      </c>
+      <c r="I152" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="2">
+        <v>3</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153" s="4">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="18"/>
+        <v>339</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="19"/>
+        <v>338</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="20"/>
+        <v>50626</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="21"/>
+        <v>50625</v>
+      </c>
+      <c r="I153" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154">
+        <v>43</v>
+      </c>
+      <c r="C154" s="4">
+        <v>129</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="18"/>
+        <v>339</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="19"/>
+        <v>381</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="20"/>
+        <v>50624</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="21"/>
+        <v>50496</v>
+      </c>
+      <c r="I154" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" s="4">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="18"/>
+        <v>382</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="19"/>
+        <v>381</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="20"/>
+        <v>50495</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="21"/>
+        <v>50495</v>
+      </c>
+      <c r="I155" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" s="4">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="18"/>
+        <v>382</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="19"/>
+        <v>382</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="20"/>
+        <v>50494</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="21"/>
+        <v>50495</v>
+      </c>
+      <c r="I156" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157">
+        <v>36</v>
+      </c>
+      <c r="C157" s="4">
+        <v>108</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="18"/>
+        <v>383</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="19"/>
+        <v>418</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="20"/>
+        <v>50494</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="21"/>
+        <v>50387</v>
+      </c>
+      <c r="I157" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" s="4">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="18"/>
+        <v>419</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="19"/>
+        <v>418</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="20"/>
+        <v>50386</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="21"/>
+        <v>50385</v>
+      </c>
+      <c r="I158" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="2">
+        <v>5</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159" s="4">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="18"/>
+        <v>419</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="19"/>
+        <v>418</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="20"/>
+        <v>50384</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="21"/>
+        <v>50383</v>
+      </c>
+      <c r="I159" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160" s="4">
+        <v>8897</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="18"/>
+        <v>419</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="19"/>
+        <v>418</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="20"/>
+        <v>50382</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="21"/>
+        <v>41486</v>
+      </c>
+      <c r="I160" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="2">
+        <v>3</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161" s="4">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="18"/>
+        <v>419</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="19"/>
+        <v>418</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="20"/>
+        <v>41485</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="21"/>
+        <v>41484</v>
+      </c>
+      <c r="I161" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" s="4">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="18"/>
+        <v>419</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="19"/>
+        <v>419</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="20"/>
+        <v>41483</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="21"/>
+        <v>41483</v>
+      </c>
+      <c r="I162" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163">
+        <v>76</v>
+      </c>
+      <c r="C163" s="4">
+        <v>228</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="18"/>
+        <v>420</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="19"/>
+        <v>495</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="20"/>
+        <v>41482</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="21"/>
+        <v>41255</v>
+      </c>
+      <c r="I163" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164" s="4">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="18"/>
+        <v>496</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="19"/>
+        <v>495</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="20"/>
+        <v>41254</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="21"/>
+        <v>41254</v>
+      </c>
+      <c r="I164" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="2">
+        <v>5</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165" s="4">
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="18"/>
+        <v>496</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="19"/>
+        <v>495</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="20"/>
+        <v>41253</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="21"/>
+        <v>41252</v>
+      </c>
+      <c r="I165" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166" s="4">
+        <v>3909</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="18"/>
+        <v>496</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="19"/>
+        <v>495</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="20"/>
+        <v>41251</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="21"/>
+        <v>37343</v>
+      </c>
+      <c r="I166" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167" s="4">
+        <v>2</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="18"/>
+        <v>496</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="19"/>
+        <v>495</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="20"/>
+        <v>37342</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="21"/>
+        <v>37341</v>
+      </c>
+      <c r="I167" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" s="4">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="18"/>
+        <v>496</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="19"/>
+        <v>496</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="20"/>
+        <v>37340</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="21"/>
+        <v>37339</v>
+      </c>
+      <c r="I168" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169">
+        <v>51</v>
+      </c>
+      <c r="C169" s="4">
+        <v>153</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="18"/>
+        <v>497</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="19"/>
+        <v>547</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="20"/>
+        <v>37338</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="21"/>
+        <v>37186</v>
+      </c>
+      <c r="I169" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170" s="4">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="18"/>
+        <v>548</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="19"/>
+        <v>547</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="20"/>
+        <v>37185</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="21"/>
+        <v>37185</v>
+      </c>
+      <c r="I170" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="2">
+        <v>5</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171" s="4">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="18"/>
+        <v>548</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="19"/>
+        <v>547</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="20"/>
+        <v>37184</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="21"/>
+        <v>37183</v>
+      </c>
+      <c r="I171" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172" s="4">
+        <v>758</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="18"/>
+        <v>548</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="19"/>
+        <v>547</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="20"/>
+        <v>37182</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="21"/>
+        <v>36425</v>
+      </c>
+      <c r="I172" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="2">
+        <v>3</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173" s="4">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="18"/>
+        <v>548</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="19"/>
+        <v>547</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="20"/>
+        <v>36424</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="21"/>
+        <v>36423</v>
+      </c>
+      <c r="I173" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" s="4">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="18"/>
+        <v>548</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="19"/>
+        <v>548</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="20"/>
+        <v>36422</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="21"/>
+        <v>36421</v>
+      </c>
+      <c r="I174" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175">
+        <v>26</v>
+      </c>
+      <c r="C175" s="4">
+        <v>78</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="18"/>
+        <v>549</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="19"/>
+        <v>574</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="20"/>
+        <v>36420</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="21"/>
+        <v>36343</v>
+      </c>
+      <c r="I175" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="2">
+        <v>5</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176" s="4">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="18"/>
+        <v>575</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="19"/>
+        <v>574</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="20"/>
+        <v>36342</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="21"/>
+        <v>36341</v>
+      </c>
+      <c r="I176" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177" s="4">
+        <v>599</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="18"/>
+        <v>575</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="19"/>
+        <v>574</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="20"/>
+        <v>36340</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="21"/>
+        <v>35742</v>
+      </c>
+      <c r="I177" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="2">
+        <v>3</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178" s="4">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="18"/>
+        <v>575</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="19"/>
+        <v>574</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="20"/>
+        <v>35741</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="21"/>
+        <v>35740</v>
+      </c>
+      <c r="I178" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179">
+        <v>91</v>
+      </c>
+      <c r="C179" s="4">
+        <v>273</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="18"/>
+        <v>575</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="19"/>
+        <v>665</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="20"/>
+        <v>35739</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="21"/>
+        <v>35467</v>
+      </c>
+      <c r="I179" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E182">
+        <f>E144</f>
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <f>F144</f>
+        <v>274</v>
+      </c>
+      <c r="G182">
+        <f>G144</f>
+        <v>55122</v>
+      </c>
+      <c r="H182">
+        <f>H144</f>
+        <v>54301</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E183">
+        <f>E148</f>
+        <v>275</v>
+      </c>
+      <c r="F183">
+        <f>F150</f>
+        <v>338</v>
+      </c>
+      <c r="G183">
+        <f>G148</f>
+        <v>52054</v>
+      </c>
+      <c r="H183">
+        <f>H150</f>
+        <v>51862</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E184">
+        <f>E154</f>
+        <v>339</v>
+      </c>
+      <c r="F184">
+        <f>F158</f>
+        <v>418</v>
+      </c>
+      <c r="G184">
+        <f>G154</f>
+        <v>50624</v>
+      </c>
+      <c r="H184">
+        <f>H158</f>
+        <v>50385</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E185">
+        <f>E162</f>
+        <v>419</v>
+      </c>
+      <c r="F185">
+        <f>F164</f>
+        <v>495</v>
+      </c>
+      <c r="G185">
+        <f>G162</f>
+        <v>41483</v>
+      </c>
+      <c r="H185">
+        <f>H164</f>
+        <v>41254</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E186">
+        <f>E168</f>
+        <v>496</v>
+      </c>
+      <c r="F186">
+        <f>F170</f>
+        <v>547</v>
+      </c>
+      <c r="G186">
+        <f>G168</f>
+        <v>37340</v>
+      </c>
+      <c r="H186">
+        <f>H170</f>
+        <v>37185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E187">
+        <f>E174</f>
+        <v>548</v>
+      </c>
+      <c r="F187">
+        <f>F175</f>
+        <v>574</v>
+      </c>
+      <c r="G187">
+        <f>G174</f>
+        <v>36422</v>
+      </c>
+      <c r="H187">
+        <f>H175</f>
+        <v>36343</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E188">
+        <f>E179</f>
+        <v>575</v>
+      </c>
+      <c r="F188">
+        <f>F179</f>
+        <v>665</v>
+      </c>
+      <c r="G188">
+        <f>G179</f>
+        <v>35739</v>
+      </c>
+      <c r="H188">
+        <f>H179</f>
+        <v>35467</v>
       </c>
     </row>
   </sheetData>
